--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/Documents/GitHub/beatlesAnalysis/Korpus/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2700" yWindow="2120" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>Titel</t>
   </si>
@@ -97,12 +108,270 @@
   </si>
   <si>
     <t>Medley, Russell</t>
+  </si>
+  <si>
+    <t>It Won't Be Long</t>
+  </si>
+  <si>
+    <t>All I've Got to Do</t>
+  </si>
+  <si>
+    <t>All My Loving</t>
+  </si>
+  <si>
+    <t>Don't Bother Me</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Little Child</t>
+  </si>
+  <si>
+    <t>Till There Was You</t>
+  </si>
+  <si>
+    <t>Meredith Willson</t>
+  </si>
+  <si>
+    <t>Please Mr. Postman</t>
+  </si>
+  <si>
+    <t>Garrett, Dobbins, Brian Holland, Gorman, Bateman</t>
+  </si>
+  <si>
+    <t>Roll Over Beethoven</t>
+  </si>
+  <si>
+    <t>Chuck Berry</t>
+  </si>
+  <si>
+    <t>Hold Me Tight</t>
+  </si>
+  <si>
+    <t>You Really Got a Hold on Me</t>
+  </si>
+  <si>
+    <t>Smokey Robinson</t>
+  </si>
+  <si>
+    <t>I Wanna Be Your Man</t>
+  </si>
+  <si>
+    <t>Devil in Her Heart</t>
+  </si>
+  <si>
+    <t>Richard P. Drapkin</t>
+  </si>
+  <si>
+    <t>Not a Second Time</t>
+  </si>
+  <si>
+    <t>Money (That's What I Want)</t>
+  </si>
+  <si>
+    <t>Janie Bradford, Berry Gordy</t>
+  </si>
+  <si>
+    <t>With the Beatles</t>
+  </si>
+  <si>
+    <t>A Hard Day's Night</t>
+  </si>
+  <si>
+    <t>I Should Have Known Better</t>
+  </si>
+  <si>
+    <t>If I Fell</t>
+  </si>
+  <si>
+    <t>I'm Happy Just to Dance with You</t>
+  </si>
+  <si>
+    <t>And I Love Her</t>
+  </si>
+  <si>
+    <t>Tell Me Why</t>
+  </si>
+  <si>
+    <t>Can't Buy Me Love</t>
+  </si>
+  <si>
+    <t>Any Time at All</t>
+  </si>
+  <si>
+    <t>I'll Cry Instead</t>
+  </si>
+  <si>
+    <t>Things We Said Today</t>
+  </si>
+  <si>
+    <t>When I Get Home</t>
+  </si>
+  <si>
+    <t>You Can't Do That</t>
+  </si>
+  <si>
+    <t>I'll Be Back</t>
+  </si>
+  <si>
+    <t>No Reply</t>
+  </si>
+  <si>
+    <t>Beatles for Sale</t>
+  </si>
+  <si>
+    <t>I'm a Loser</t>
+  </si>
+  <si>
+    <t>Baby's in Black</t>
+  </si>
+  <si>
+    <t>Rock and Roll Music</t>
+  </si>
+  <si>
+    <t>I'll Follow the Sun</t>
+  </si>
+  <si>
+    <t>Mr. Moonlight</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Kansas City Hey Hey Hey Hey</t>
+  </si>
+  <si>
+    <t>Leiber, Stoller, Richard Penniman</t>
+  </si>
+  <si>
+    <t>Eight Days a Week</t>
+  </si>
+  <si>
+    <t>Words of Love</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
+  </si>
+  <si>
+    <t>Honey Don't</t>
+  </si>
+  <si>
+    <t>Carl Perkins</t>
+  </si>
+  <si>
+    <t>Every Little Thing</t>
+  </si>
+  <si>
+    <t>I Don't Want to Spoil the Party</t>
+  </si>
+  <si>
+    <t>What You're Doing</t>
+  </si>
+  <si>
+    <t>Everybody's Trying to Be My Baby</t>
+  </si>
+  <si>
+    <t>Help!</t>
+  </si>
+  <si>
+    <t>The Night Before</t>
+  </si>
+  <si>
+    <t>You've Got to Hide Your Love Away</t>
+  </si>
+  <si>
+    <t>I Need You</t>
+  </si>
+  <si>
+    <t>Another Girl</t>
+  </si>
+  <si>
+    <t>You're Going to Lose That Girl</t>
+  </si>
+  <si>
+    <t>Ticket to Ride</t>
+  </si>
+  <si>
+    <t>Act Naturally</t>
+  </si>
+  <si>
+    <t>Morrison, Russell</t>
+  </si>
+  <si>
+    <t>It's Only Love</t>
+  </si>
+  <si>
+    <t>You Like Me Too Much</t>
+  </si>
+  <si>
+    <t>Tell Me What You See</t>
+  </si>
+  <si>
+    <t>I've Just Seen a Face</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Dizzy Miss Lizzy</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Drive My Car</t>
+  </si>
+  <si>
+    <t>Rubber Soul</t>
+  </si>
+  <si>
+    <t>Norwegian Wood (The Bird Has Flown)</t>
+  </si>
+  <si>
+    <t>You Won't See Me</t>
+  </si>
+  <si>
+    <t>Nowhere Man</t>
+  </si>
+  <si>
+    <t>Think for Yourself</t>
+  </si>
+  <si>
+    <t>The Word</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>What Goes On?</t>
+  </si>
+  <si>
+    <t>McCartney, Lennon, Starkey</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>I'm Looking Through You</t>
+  </si>
+  <si>
+    <t>In My Life</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>If I Needed Somebody</t>
+  </si>
+  <si>
+    <t>Run for Your Life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,22 +736,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -516,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -533,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -550,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -567,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -584,7 +853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -601,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -618,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -635,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -652,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -669,7 +938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -686,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -703,7 +972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -720,7 +989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -735,6 +1004,765 @@
       </c>
       <c r="E15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2120" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="2440" yWindow="2500" windowWidth="23740" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -396,12 +396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -416,12 +422,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -738,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1010,6 +1017,12 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
@@ -1021,6 +1034,12 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>4.5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
@@ -1032,6 +1051,12 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
@@ -1043,6 +1068,12 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>4.5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
@@ -1054,6 +1085,9 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
@@ -1065,6 +1099,12 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
@@ -1076,6 +1116,12 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
@@ -1087,6 +1133,12 @@
       <c r="A23" t="s">
         <v>36</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
@@ -1098,6 +1150,12 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
       <c r="D24" t="s">
         <v>47</v>
       </c>
@@ -1109,6 +1167,12 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
+      <c r="B25">
+        <v>4.5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
@@ -1117,8 +1181,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
@@ -1131,6 +1198,12 @@
       <c r="A27" t="s">
         <v>42</v>
       </c>
+      <c r="B27">
+        <v>4.5</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
       <c r="D27" t="s">
         <v>47</v>
       </c>
@@ -1142,6 +1215,12 @@
       <c r="A28" t="s">
         <v>44</v>
       </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
@@ -1152,6 +1231,12 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="113">
   <si>
     <t>Titel</t>
   </si>
@@ -362,10 +362,13 @@
     <t>Wait</t>
   </si>
   <si>
-    <t>If I Needed Somebody</t>
-  </si>
-  <si>
     <t>Run for Your Life</t>
+  </si>
+  <si>
+    <t>gprotab.net</t>
+  </si>
+  <si>
+    <t>If I Needed Someone</t>
   </si>
 </sst>
 </file>
@@ -745,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,6 +1187,9 @@
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
       <c r="C26">
         <v>0</v>
       </c>
@@ -1249,6 +1255,12 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
+      <c r="B30">
+        <v>4.5</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -1260,6 +1272,12 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
+      <c r="B31">
+        <v>4.5</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
@@ -1271,6 +1289,12 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
@@ -1282,6 +1306,12 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
@@ -1293,6 +1323,12 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
+      <c r="B34">
+        <v>4.5</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
@@ -1304,6 +1340,12 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
+      <c r="B35">
+        <v>4.5</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
@@ -1315,6 +1357,12 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
@@ -1326,6 +1374,12 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
@@ -1337,6 +1391,12 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
@@ -1348,6 +1408,12 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
+      <c r="B39">
+        <v>4.5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
@@ -1359,6 +1425,9 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
@@ -1370,6 +1439,12 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
@@ -1381,6 +1456,12 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
@@ -1392,6 +1473,9 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43" t="s">
         <v>62</v>
       </c>
@@ -1403,6 +1487,12 @@
       <c r="A44" t="s">
         <v>63</v>
       </c>
+      <c r="B44">
+        <v>4.5</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
       <c r="D44" t="s">
         <v>62</v>
       </c>
@@ -1414,6 +1504,12 @@
       <c r="A45" t="s">
         <v>64</v>
       </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
       <c r="D45" t="s">
         <v>62</v>
       </c>
@@ -1425,6 +1521,12 @@
       <c r="A46" t="s">
         <v>65</v>
       </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
       <c r="D46" t="s">
         <v>62</v>
       </c>
@@ -1436,6 +1538,12 @@
       <c r="A47" t="s">
         <v>66</v>
       </c>
+      <c r="B47">
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
       <c r="D47" t="s">
         <v>62</v>
       </c>
@@ -1447,6 +1555,12 @@
       <c r="A48" t="s">
         <v>67</v>
       </c>
+      <c r="B48">
+        <v>4.5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
@@ -1458,6 +1572,12 @@
       <c r="A49" t="s">
         <v>69</v>
       </c>
+      <c r="B49">
+        <v>4.5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
       <c r="D49" t="s">
         <v>62</v>
       </c>
@@ -1469,6 +1589,12 @@
       <c r="A50" t="s">
         <v>71</v>
       </c>
+      <c r="B50">
+        <v>4.5</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
       <c r="D50" t="s">
         <v>62</v>
       </c>
@@ -1480,6 +1606,12 @@
       <c r="A51" t="s">
         <v>72</v>
       </c>
+      <c r="B51">
+        <v>4.5</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
@@ -1491,6 +1623,12 @@
       <c r="A52" t="s">
         <v>74</v>
       </c>
+      <c r="B52">
+        <v>4.5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
       <c r="D52" t="s">
         <v>62</v>
       </c>
@@ -1502,6 +1640,12 @@
       <c r="A53" t="s">
         <v>76</v>
       </c>
+      <c r="B53">
+        <v>4.5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
       <c r="D53" t="s">
         <v>62</v>
       </c>
@@ -1513,6 +1657,12 @@
       <c r="A54" t="s">
         <v>77</v>
       </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
       <c r="D54" t="s">
         <v>62</v>
       </c>
@@ -1524,6 +1674,12 @@
       <c r="A55" t="s">
         <v>78</v>
       </c>
+      <c r="B55">
+        <v>4.5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
       <c r="D55" t="s">
         <v>62</v>
       </c>
@@ -1535,6 +1691,12 @@
       <c r="A56" t="s">
         <v>79</v>
       </c>
+      <c r="B56">
+        <v>4.5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
       <c r="D56" t="s">
         <v>62</v>
       </c>
@@ -1546,6 +1708,12 @@
       <c r="A57" t="s">
         <v>80</v>
       </c>
+      <c r="B57">
+        <v>4.5</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
       <c r="D57" t="s">
         <v>80</v>
       </c>
@@ -1557,6 +1725,12 @@
       <c r="A58" t="s">
         <v>81</v>
       </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
       <c r="D58" t="s">
         <v>80</v>
       </c>
@@ -1568,6 +1742,12 @@
       <c r="A59" t="s">
         <v>82</v>
       </c>
+      <c r="B59">
+        <v>4.5</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
       <c r="D59" t="s">
         <v>80</v>
       </c>
@@ -1579,6 +1759,12 @@
       <c r="A60" t="s">
         <v>83</v>
       </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
       <c r="D60" t="s">
         <v>80</v>
       </c>
@@ -1590,6 +1776,9 @@
       <c r="A61" t="s">
         <v>84</v>
       </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
@@ -1601,6 +1790,12 @@
       <c r="A62" t="s">
         <v>85</v>
       </c>
+      <c r="B62">
+        <v>4.5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
       <c r="D62" t="s">
         <v>80</v>
       </c>
@@ -1612,6 +1807,12 @@
       <c r="A63" t="s">
         <v>86</v>
       </c>
+      <c r="B63">
+        <v>4.5</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
       <c r="D63" t="s">
         <v>80</v>
       </c>
@@ -1623,6 +1824,12 @@
       <c r="A64" t="s">
         <v>87</v>
       </c>
+      <c r="B64">
+        <v>4.5</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
       <c r="D64" t="s">
         <v>80</v>
       </c>
@@ -1634,6 +1841,12 @@
       <c r="A65" t="s">
         <v>89</v>
       </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
       <c r="D65" t="s">
         <v>80</v>
       </c>
@@ -1645,6 +1858,9 @@
       <c r="A66" t="s">
         <v>90</v>
       </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
       <c r="D66" t="s">
         <v>80</v>
       </c>
@@ -1656,6 +1872,12 @@
       <c r="A67" t="s">
         <v>91</v>
       </c>
+      <c r="B67">
+        <v>4.5</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
       <c r="D67" t="s">
         <v>80</v>
       </c>
@@ -1667,6 +1889,12 @@
       <c r="A68" t="s">
         <v>92</v>
       </c>
+      <c r="B68">
+        <v>4.5</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
@@ -1678,6 +1906,12 @@
       <c r="A69" t="s">
         <v>93</v>
       </c>
+      <c r="B69">
+        <v>4.5</v>
+      </c>
+      <c r="C69">
+        <v>49</v>
+      </c>
       <c r="D69" t="s">
         <v>80</v>
       </c>
@@ -1689,6 +1923,12 @@
       <c r="A70" t="s">
         <v>94</v>
       </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
       <c r="D70" t="s">
         <v>80</v>
       </c>
@@ -1700,6 +1940,12 @@
       <c r="A71" t="s">
         <v>96</v>
       </c>
+      <c r="B71">
+        <v>4.5</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
       <c r="D71" t="s">
         <v>97</v>
       </c>
@@ -1711,6 +1957,12 @@
       <c r="A72" t="s">
         <v>98</v>
       </c>
+      <c r="B72">
+        <v>4.5</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
       <c r="D72" t="s">
         <v>97</v>
       </c>
@@ -1722,6 +1974,12 @@
       <c r="A73" t="s">
         <v>99</v>
       </c>
+      <c r="B73">
+        <v>4.5</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
       <c r="D73" t="s">
         <v>97</v>
       </c>
@@ -1733,6 +1991,12 @@
       <c r="A74" t="s">
         <v>100</v>
       </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
       <c r="D74" t="s">
         <v>97</v>
       </c>
@@ -1744,6 +2008,12 @@
       <c r="A75" t="s">
         <v>101</v>
       </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
       <c r="D75" t="s">
         <v>97</v>
       </c>
@@ -1755,6 +2025,12 @@
       <c r="A76" t="s">
         <v>102</v>
       </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
       <c r="D76" t="s">
         <v>97</v>
       </c>
@@ -1766,6 +2042,12 @@
       <c r="A77" t="s">
         <v>103</v>
       </c>
+      <c r="B77">
+        <v>4.5</v>
+      </c>
+      <c r="C77">
+        <v>27</v>
+      </c>
       <c r="D77" t="s">
         <v>97</v>
       </c>
@@ -1777,6 +2059,9 @@
       <c r="A78" t="s">
         <v>104</v>
       </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
       <c r="D78" t="s">
         <v>97</v>
       </c>
@@ -1788,6 +2073,12 @@
       <c r="A79" t="s">
         <v>106</v>
       </c>
+      <c r="B79">
+        <v>4.5</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
       <c r="D79" t="s">
         <v>97</v>
       </c>
@@ -1799,6 +2090,12 @@
       <c r="A80" t="s">
         <v>107</v>
       </c>
+      <c r="B80">
+        <v>4.5</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
       <c r="D80" t="s">
         <v>97</v>
       </c>
@@ -1810,6 +2107,12 @@
       <c r="A81" t="s">
         <v>108</v>
       </c>
+      <c r="B81">
+        <v>4.5</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
       <c r="D81" t="s">
         <v>97</v>
       </c>
@@ -1821,6 +2124,12 @@
       <c r="A82" t="s">
         <v>109</v>
       </c>
+      <c r="B82">
+        <v>4.5</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
       <c r="D82" t="s">
         <v>97</v>
       </c>
@@ -1830,7 +2139,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B83">
+        <v>4.5</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -1841,7 +2156,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
       </c>
       <c r="D84" t="s">
         <v>97</v>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="163">
   <si>
     <t>Titel</t>
   </si>
@@ -369,6 +369,156 @@
   </si>
   <si>
     <t>If I Needed Someone</t>
+  </si>
+  <si>
+    <t>Taxman</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Eleanor Rigby</t>
+  </si>
+  <si>
+    <t>I'm Only Sleeping</t>
+  </si>
+  <si>
+    <t>Love You To</t>
+  </si>
+  <si>
+    <t>Here, There and Everywhere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>She Said She Said</t>
+  </si>
+  <si>
+    <t>Good Day Sunshine</t>
+  </si>
+  <si>
+    <t>And Your Bird Can Sing</t>
+  </si>
+  <si>
+    <t>For No One</t>
+  </si>
+  <si>
+    <t>Doctor Robert</t>
+  </si>
+  <si>
+    <t>I Want to Tell You</t>
+  </si>
+  <si>
+    <t>Got to Get You into My Life</t>
+  </si>
+  <si>
+    <t>Tomorrow Never Knows</t>
+  </si>
+  <si>
+    <t>Sgt. Pepper's Lonely Hearts Club Band</t>
+  </si>
+  <si>
+    <t>With a Little Help from My Friends</t>
+  </si>
+  <si>
+    <t>Lucy in the Sky with Diamonds</t>
+  </si>
+  <si>
+    <t>Getting Better</t>
+  </si>
+  <si>
+    <t>Fixing a Hole</t>
+  </si>
+  <si>
+    <t>She's Leaving You</t>
+  </si>
+  <si>
+    <t>Being for the Benefit of Mr. Kite!</t>
+  </si>
+  <si>
+    <t>Within You Without You</t>
+  </si>
+  <si>
+    <t>When I'm Sixty-Four</t>
+  </si>
+  <si>
+    <t>Lovely Rita</t>
+  </si>
+  <si>
+    <t>Good Morning Good Morning</t>
+  </si>
+  <si>
+    <t>Sgt. Pepper's Lonely Hearts Club Band (Reprise)</t>
+  </si>
+  <si>
+    <t>A Day in the Life</t>
+  </si>
+  <si>
+    <t>Magical Mystery Tour</t>
+  </si>
+  <si>
+    <t>The Fool on the Hill</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>McCartney, Lennon, Harrison, Starkey</t>
+  </si>
+  <si>
+    <t>Blue Jay Way</t>
+  </si>
+  <si>
+    <t>Your Mother Should Know</t>
+  </si>
+  <si>
+    <t>I Am the Walrus</t>
+  </si>
+  <si>
+    <t>Hello, Goodbye</t>
+  </si>
+  <si>
+    <t>Strawberry Fields Forever</t>
+  </si>
+  <si>
+    <t>Penny Lane</t>
+  </si>
+  <si>
+    <t>Baby You're a Rich Man</t>
+  </si>
+  <si>
+    <t>All You Need Is Love</t>
+  </si>
+  <si>
+    <t>Back in the USSR</t>
+  </si>
+  <si>
+    <t>The BEATLES</t>
+  </si>
+  <si>
+    <t>Dear Prudence</t>
+  </si>
+  <si>
+    <t>Glass Onion</t>
+  </si>
+  <si>
+    <t>Ob-La-Di, Ob-La-Da</t>
+  </si>
+  <si>
+    <t>Wild Honey Pie</t>
+  </si>
+  <si>
+    <t>The Continuing Story of Bungalow Bill</t>
+  </si>
+  <si>
+    <t>While My Guitar Gently Weeps</t>
+  </si>
+  <si>
+    <t>Happiness Is a Warm Gun</t>
+  </si>
+  <si>
+    <t>Martha My Dear</t>
   </si>
 </sst>
 </file>
@@ -746,15 +896,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
@@ -2171,6 +2321,529 @@
         <v>8</v>
       </c>
     </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" t="s">
+        <v>141</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2500" windowWidth="23740" windowHeight="12640"/>
+    <workbookView xWindow="1160" yWindow="2860" windowWidth="25340" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="220">
   <si>
     <t>Titel</t>
   </si>
@@ -519,6 +519,177 @@
   </si>
   <si>
     <t>Martha My Dear</t>
+  </si>
+  <si>
+    <t>I'm So Tired</t>
+  </si>
+  <si>
+    <t>Blackbird</t>
+  </si>
+  <si>
+    <t>Piggies</t>
+  </si>
+  <si>
+    <t>Rocky Raccoon</t>
+  </si>
+  <si>
+    <t>Don't Pass Me By</t>
+  </si>
+  <si>
+    <t>Starkey</t>
+  </si>
+  <si>
+    <t>Why Don't We Do It in the Road</t>
+  </si>
+  <si>
+    <t>I Will</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Yer Blues</t>
+  </si>
+  <si>
+    <t>Mother Nature's Son</t>
+  </si>
+  <si>
+    <t>Everybody's Got Something to Hide Except Me and My Monkey</t>
+  </si>
+  <si>
+    <t>Sexy Sadie</t>
+  </si>
+  <si>
+    <t>Helter Skelter</t>
+  </si>
+  <si>
+    <t>Long, Long, Long</t>
+  </si>
+  <si>
+    <t>Revolution 1</t>
+  </si>
+  <si>
+    <t>Honey Pie</t>
+  </si>
+  <si>
+    <t>Savoy Truffle</t>
+  </si>
+  <si>
+    <t>Cry Baby Cry</t>
+  </si>
+  <si>
+    <t>Revolution 9</t>
+  </si>
+  <si>
+    <t>Good Night</t>
+  </si>
+  <si>
+    <t>Only a Northern Song</t>
+  </si>
+  <si>
+    <t>All Together Now</t>
+  </si>
+  <si>
+    <t>Hey Bulldog</t>
+  </si>
+  <si>
+    <t>It's All Too Much</t>
+  </si>
+  <si>
+    <t>Come Together</t>
+  </si>
+  <si>
+    <t>Abbey Road</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>Maxwell's Silver Hammer</t>
+  </si>
+  <si>
+    <t>Oh! Darling</t>
+  </si>
+  <si>
+    <t>Octopus's Garden</t>
+  </si>
+  <si>
+    <t>I Want You (She's So Heavy)</t>
+  </si>
+  <si>
+    <t>Here Comes The Sun</t>
+  </si>
+  <si>
+    <t>Because</t>
+  </si>
+  <si>
+    <t>You Never Give Me Your Money</t>
+  </si>
+  <si>
+    <t>Sun King</t>
+  </si>
+  <si>
+    <t>Mean Mr. Mustard</t>
+  </si>
+  <si>
+    <t>Polythene Pam</t>
+  </si>
+  <si>
+    <t>She Came In Through the Bathroom Window</t>
+  </si>
+  <si>
+    <t>Golden Slumbers</t>
+  </si>
+  <si>
+    <t>Carry That Weight</t>
+  </si>
+  <si>
+    <t>The End</t>
+  </si>
+  <si>
+    <t>Her Majesty</t>
+  </si>
+  <si>
+    <t>Two of Us</t>
+  </si>
+  <si>
+    <t>Let It Be</t>
+  </si>
+  <si>
+    <t>Dig a Pony</t>
+  </si>
+  <si>
+    <t>Across the Universe</t>
+  </si>
+  <si>
+    <t>I Me Mine</t>
+  </si>
+  <si>
+    <t>Dig It</t>
+  </si>
+  <si>
+    <t>Maggie Mae</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>I've Got a Feeling</t>
+  </si>
+  <si>
+    <t>One After 909</t>
+  </si>
+  <si>
+    <t>The Long and Winding Road</t>
+  </si>
+  <si>
+    <t>For Your Blue</t>
+  </si>
+  <si>
+    <t>Get Back</t>
   </si>
 </sst>
 </file>
@@ -575,13 +746,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -896,15 +1068,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
@@ -2459,7 +2631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -2470,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -2481,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -2492,7 +2664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -2503,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -2514,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -2525,7 +2697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -2536,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -2547,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -2558,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -2569,7 +2741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -2580,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -2591,7 +2763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -2602,7 +2774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>139</v>
       </c>
@@ -2613,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -2623,8 +2795,9 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -2841,6 +3014,589 @@
         <v>154</v>
       </c>
       <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" t="s">
+        <v>154</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" t="s">
+        <v>154</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" t="s">
+        <v>154</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>175</v>
+      </c>
+      <c r="D143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" t="s">
+        <v>154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" t="s">
+        <v>154</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>178</v>
+      </c>
+      <c r="D146" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" t="s">
+        <v>154</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>182</v>
+      </c>
+      <c r="D150" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>183</v>
+      </c>
+      <c r="D151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" t="s">
+        <v>154</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D153" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>188</v>
+      </c>
+      <c r="D156" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>191</v>
+      </c>
+      <c r="D158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
+      <c r="D159" t="s">
+        <v>190</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>194</v>
+      </c>
+      <c r="D161" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>195</v>
+      </c>
+      <c r="D162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>198</v>
+      </c>
+      <c r="D165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>199</v>
+      </c>
+      <c r="D166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>201</v>
+      </c>
+      <c r="D168" t="s">
+        <v>190</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="D169" t="s">
+        <v>190</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>203</v>
+      </c>
+      <c r="D170" t="s">
+        <v>190</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>204</v>
+      </c>
+      <c r="D171" t="s">
+        <v>190</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>206</v>
+      </c>
+      <c r="D173" t="s">
+        <v>190</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>207</v>
+      </c>
+      <c r="D174" t="s">
+        <v>208</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" t="s">
+        <v>208</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" t="s">
+        <v>208</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" t="s">
+        <v>208</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>215</v>
+      </c>
+      <c r="D180" t="s">
+        <v>208</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>216</v>
+      </c>
+      <c r="D181" t="s">
+        <v>208</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>217</v>
+      </c>
+      <c r="D182" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>218</v>
+      </c>
+      <c r="D183" t="s">
+        <v>208</v>
+      </c>
+      <c r="E183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" t="s">
+        <v>208</v>
+      </c>
+      <c r="E184" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/Documents/GitHub/beatlesAnalysis/Korpus/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2860" windowWidth="25340" windowHeight="12640"/>
+    <workbookView xWindow="1155" yWindow="2865" windowWidth="25335" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="221">
   <si>
     <t>Titel</t>
   </si>
@@ -690,12 +685,15 @@
   </si>
   <si>
     <t>Get Back</t>
+  </si>
+  <si>
+    <t>klangkollage nicht als tab verfügbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -756,7 +754,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,20 +1068,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1757,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -1924,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1941,7 +1939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2094,7 +2092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -2142,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2190,7 +2188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -2241,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -2326,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -2343,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -2408,7 +2406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2510,10 +2508,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
+      <c r="B86">
+        <v>4.5</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
       <c r="D86" t="s">
         <v>114</v>
       </c>
@@ -2521,10 +2525,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
       <c r="D87" t="s">
         <v>114</v>
       </c>
@@ -2532,10 +2542,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
+      <c r="B88">
+        <v>4.5</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
       <c r="D88" t="s">
         <v>114</v>
       </c>
@@ -2543,10 +2559,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
       <c r="D89" t="s">
         <v>114</v>
       </c>
@@ -2554,10 +2576,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
       <c r="D90" t="s">
         <v>114</v>
       </c>
@@ -2565,10 +2593,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
       <c r="D91" t="s">
         <v>114</v>
       </c>
@@ -2576,10 +2610,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>121</v>
       </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
       <c r="D92" t="s">
         <v>114</v>
       </c>
@@ -2587,10 +2627,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
+      <c r="B93">
+        <v>4.5</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
       <c r="D93" t="s">
         <v>114</v>
       </c>
@@ -2598,10 +2644,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>123</v>
       </c>
+      <c r="B94">
+        <v>4.5</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
       <c r="D94" t="s">
         <v>114</v>
       </c>
@@ -2609,10 +2661,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
       <c r="D95" t="s">
         <v>114</v>
       </c>
@@ -2620,10 +2675,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>125</v>
       </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
       <c r="D96" t="s">
         <v>114</v>
       </c>
@@ -2631,10 +2689,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
+      <c r="B97">
+        <v>4.5</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
       <c r="D97" t="s">
         <v>114</v>
       </c>
@@ -2642,10 +2706,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
       <c r="D98" t="s">
         <v>114</v>
       </c>
@@ -2653,10 +2723,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
       <c r="D99" t="s">
         <v>128</v>
       </c>
@@ -2664,10 +2740,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
+      <c r="B100">
+        <v>4.5</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
       <c r="D100" t="s">
         <v>128</v>
       </c>
@@ -2675,10 +2757,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
       <c r="D101" t="s">
         <v>128</v>
       </c>
@@ -2686,10 +2774,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
+      <c r="B102">
+        <v>4.5</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
       <c r="D102" t="s">
         <v>128</v>
       </c>
@@ -2697,10 +2791,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
+      <c r="B103">
+        <v>4.5</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
       <c r="D103" t="s">
         <v>128</v>
       </c>
@@ -2708,10 +2808,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
       <c r="D104" t="s">
         <v>128</v>
       </c>
@@ -2719,10 +2825,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
+      <c r="B105">
+        <v>4.5</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
       <c r="D105" t="s">
         <v>128</v>
       </c>
@@ -2730,10 +2842,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
       <c r="D106" t="s">
         <v>128</v>
       </c>
@@ -2741,10 +2859,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>136</v>
       </c>
+      <c r="B107">
+        <v>4.5</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
       <c r="D107" t="s">
         <v>128</v>
       </c>
@@ -2752,10 +2876,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>137</v>
       </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
       <c r="D108" t="s">
         <v>128</v>
       </c>
@@ -2763,10 +2893,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
       <c r="D109" t="s">
         <v>128</v>
       </c>
@@ -2774,9 +2907,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
       </c>
       <c r="D110" t="s">
         <v>128</v>
@@ -2785,10 +2924,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>140</v>
       </c>
+      <c r="B111">
+        <v>4.5</v>
+      </c>
+      <c r="C111">
+        <v>38</v>
+      </c>
       <c r="D111" t="s">
         <v>128</v>
       </c>
@@ -2797,10 +2942,16 @@
       </c>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
+      <c r="B112">
+        <v>4.5</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
       <c r="D112" t="s">
         <v>141</v>
       </c>
@@ -2808,10 +2959,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>142</v>
       </c>
+      <c r="B113">
+        <v>4.5</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
       <c r="D113" t="s">
         <v>141</v>
       </c>
@@ -2819,10 +2976,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>143</v>
       </c>
+      <c r="B114">
+        <v>4.5</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
       <c r="D114" t="s">
         <v>141</v>
       </c>
@@ -2830,10 +2993,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>145</v>
       </c>
+      <c r="B115">
+        <v>4.5</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
       <c r="D115" t="s">
         <v>141</v>
       </c>
@@ -2841,10 +3010,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>146</v>
       </c>
+      <c r="B116">
+        <v>4.5</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
       <c r="D116" t="s">
         <v>141</v>
       </c>
@@ -2852,10 +3027,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>147</v>
       </c>
+      <c r="B117">
+        <v>4.5</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
       <c r="D117" t="s">
         <v>141</v>
       </c>
@@ -2863,10 +3044,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>148</v>
       </c>
+      <c r="B118">
+        <v>4.5</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
       <c r="D118" t="s">
         <v>141</v>
       </c>
@@ -2874,10 +3061,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>149</v>
       </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
       <c r="D119" t="s">
         <v>141</v>
       </c>
@@ -2885,10 +3078,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>150</v>
       </c>
+      <c r="B120">
+        <v>4.5</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
       <c r="D120" t="s">
         <v>141</v>
       </c>
@@ -2896,10 +3095,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>151</v>
       </c>
+      <c r="B121">
+        <v>4.5</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
       <c r="D121" t="s">
         <v>141</v>
       </c>
@@ -2907,10 +3112,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
       <c r="D122" t="s">
         <v>141</v>
       </c>
@@ -2918,10 +3129,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>153</v>
       </c>
+      <c r="B123">
+        <v>4.5</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
       <c r="D123" t="s">
         <v>154</v>
       </c>
@@ -2929,10 +3146,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
       <c r="D124" t="s">
         <v>154</v>
       </c>
@@ -2940,10 +3163,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>156</v>
       </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
       <c r="D125" t="s">
         <v>154</v>
       </c>
@@ -2951,10 +3180,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>157</v>
       </c>
+      <c r="B126">
+        <v>4.5</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
       <c r="D126" t="s">
         <v>154</v>
       </c>
@@ -2962,10 +3197,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>158</v>
       </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
       <c r="D127" t="s">
         <v>154</v>
       </c>
@@ -2973,9 +3211,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128" t="s">
         <v>154</v>
@@ -2984,10 +3228,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>160</v>
       </c>
+      <c r="B129">
+        <v>4.5</v>
+      </c>
+      <c r="C129">
+        <v>89</v>
+      </c>
       <c r="D129" t="s">
         <v>154</v>
       </c>
@@ -2995,10 +3245,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>161</v>
       </c>
+      <c r="B130">
+        <v>4.5</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
       <c r="D130" t="s">
         <v>154</v>
       </c>
@@ -3006,10 +3262,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>162</v>
       </c>
+      <c r="B131">
+        <v>4.5</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
       <c r="D131" t="s">
         <v>154</v>
       </c>
@@ -3017,10 +3279,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>163</v>
       </c>
+      <c r="B132">
+        <v>4.5</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
       <c r="D132" t="s">
         <v>154</v>
       </c>
@@ -3028,10 +3296,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>164</v>
       </c>
+      <c r="B133">
+        <v>4.5</v>
+      </c>
+      <c r="C133">
+        <v>106</v>
+      </c>
       <c r="D133" t="s">
         <v>154</v>
       </c>
@@ -3039,10 +3313,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
+      <c r="B134">
+        <v>4.5</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
       <c r="D134" t="s">
         <v>154</v>
       </c>
@@ -3050,10 +3330,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>166</v>
       </c>
+      <c r="B135">
+        <v>4.5</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
       <c r="D135" t="s">
         <v>154</v>
       </c>
@@ -3061,10 +3347,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>167</v>
       </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
       <c r="D136" t="s">
         <v>154</v>
       </c>
@@ -3072,10 +3361,16 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>169</v>
       </c>
+      <c r="B137">
+        <v>4.5</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
       <c r="D137" t="s">
         <v>154</v>
       </c>
@@ -3083,10 +3378,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>170</v>
       </c>
+      <c r="B138">
+        <v>4.5</v>
+      </c>
+      <c r="C138">
+        <v>13</v>
+      </c>
       <c r="D138" t="s">
         <v>154</v>
       </c>
@@ -3094,10 +3395,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>171</v>
       </c>
+      <c r="B139">
+        <v>4.5</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
       <c r="D139" t="s">
         <v>154</v>
       </c>
@@ -3105,10 +3412,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>172</v>
       </c>
+      <c r="B140">
+        <v>4.5</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
       <c r="D140" t="s">
         <v>154</v>
       </c>
@@ -3116,10 +3429,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>173</v>
       </c>
+      <c r="B141">
+        <v>4.5</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
       <c r="D141" t="s">
         <v>154</v>
       </c>
@@ -3127,10 +3446,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>174</v>
       </c>
+      <c r="B142">
+        <v>4.5</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
       <c r="D142" t="s">
         <v>154</v>
       </c>
@@ -3138,10 +3463,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>175</v>
       </c>
+      <c r="B143">
+        <v>4.5</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
       <c r="D143" t="s">
         <v>154</v>
       </c>
@@ -3149,10 +3480,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>176</v>
       </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
       <c r="D144" t="s">
         <v>154</v>
       </c>
@@ -3160,10 +3497,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>177</v>
       </c>
+      <c r="B145">
+        <v>4.5</v>
+      </c>
+      <c r="C145">
+        <v>19</v>
+      </c>
       <c r="D145" t="s">
         <v>154</v>
       </c>
@@ -3171,10 +3514,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>178</v>
       </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
       <c r="D146" t="s">
         <v>154</v>
       </c>
@@ -3182,10 +3531,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>179</v>
       </c>
+      <c r="B147">
+        <v>4.5</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
       <c r="D147" t="s">
         <v>154</v>
       </c>
@@ -3193,10 +3548,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>180</v>
       </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
       <c r="D148" t="s">
         <v>154</v>
       </c>
@@ -3204,10 +3565,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>181</v>
       </c>
+      <c r="B149">
+        <v>4.5</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
       <c r="D149" t="s">
         <v>154</v>
       </c>
@@ -3215,10 +3582,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>182</v>
       </c>
+      <c r="B150">
+        <v>4.5</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
       <c r="D150" t="s">
         <v>154</v>
       </c>
@@ -3226,21 +3599,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>183</v>
       </c>
+      <c r="B151" t="s">
+        <v>220</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
       <c r="D151" t="s">
         <v>154</v>
       </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>184</v>
       </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
       <c r="D152" t="s">
         <v>154</v>
       </c>
@@ -3248,9 +3630,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
       </c>
       <c r="D153" t="s">
         <v>119</v>
@@ -3259,10 +3647,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>186</v>
       </c>
+      <c r="B154">
+        <v>4.5</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
       <c r="D154" t="s">
         <v>119</v>
       </c>
@@ -3270,10 +3664,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>187</v>
       </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
       <c r="D155" t="s">
         <v>119</v>
       </c>
@@ -3281,10 +3681,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>188</v>
       </c>
+      <c r="B156">
+        <v>4.5</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
       <c r="D156" t="s">
         <v>119</v>
       </c>
@@ -3292,7 +3698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -3303,7 +3709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -3314,7 +3720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -3325,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>193</v>
       </c>
@@ -3336,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -3347,7 +3753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -3358,7 +3764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>196</v>
       </c>
@@ -3369,7 +3775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -3380,7 +3786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -3391,7 +3797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -3402,7 +3808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -3413,7 +3819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -3424,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -3435,7 +3841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -3446,7 +3852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -3457,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -3468,7 +3874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -3479,7 +3885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -3490,7 +3896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -3501,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -3512,7 +3918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>211</v>
       </c>
@@ -3523,7 +3929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>212</v>
       </c>
@@ -3534,7 +3940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -3545,7 +3951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>215</v>
       </c>
@@ -3556,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -3567,7 +3973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>217</v>
       </c>
@@ -3578,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -3589,7 +3995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="225">
   <si>
     <t>Titel</t>
   </si>
@@ -687,7 +687,19 @@
     <t>Get Back</t>
   </si>
   <si>
-    <t>klangkollage nicht als tab verfügbar</t>
+    <t>nicht im korpus vorhanden</t>
+  </si>
+  <si>
+    <t>Bewertete Titel:</t>
+  </si>
+  <si>
+    <t>Titel Gesamt:</t>
+  </si>
+  <si>
+    <t>Titel Unbewertet:</t>
+  </si>
+  <si>
+    <t>Durchschnitt:</t>
   </si>
 </sst>
 </file>
@@ -718,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +770,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1066,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,9 +1528,6 @@
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
       <c r="C26">
         <v>0</v>
       </c>
@@ -2911,9 +2929,6 @@
       <c r="A110" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B110" t="s">
-        <v>111</v>
-      </c>
       <c r="C110">
         <v>0</v>
       </c>
@@ -3215,9 +3230,6 @@
       <c r="A128" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B128" t="s">
-        <v>111</v>
-      </c>
       <c r="C128">
         <v>0</v>
       </c>
@@ -3600,11 +3612,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B151" t="s">
-        <v>220</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3612,7 +3621,7 @@
       <c r="D151" t="s">
         <v>154</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3634,9 +3643,6 @@
       <c r="A153" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B153" t="s">
-        <v>111</v>
-      </c>
       <c r="C153">
         <v>0</v>
       </c>
@@ -3702,6 +3708,12 @@
       <c r="A157" t="s">
         <v>189</v>
       </c>
+      <c r="B157">
+        <v>4.5</v>
+      </c>
+      <c r="C157">
+        <v>84</v>
+      </c>
       <c r="D157" t="s">
         <v>190</v>
       </c>
@@ -3713,6 +3725,12 @@
       <c r="A158" t="s">
         <v>191</v>
       </c>
+      <c r="B158">
+        <v>4.5</v>
+      </c>
+      <c r="C158">
+        <v>48</v>
+      </c>
       <c r="D158" t="s">
         <v>190</v>
       </c>
@@ -3724,6 +3742,12 @@
       <c r="A159" t="s">
         <v>192</v>
       </c>
+      <c r="B159">
+        <v>4.5</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
       <c r="D159" t="s">
         <v>190</v>
       </c>
@@ -3735,6 +3759,12 @@
       <c r="A160" t="s">
         <v>193</v>
       </c>
+      <c r="B160">
+        <v>4.5</v>
+      </c>
+      <c r="C160">
+        <v>16</v>
+      </c>
       <c r="D160" t="s">
         <v>190</v>
       </c>
@@ -3746,6 +3776,12 @@
       <c r="A161" t="s">
         <v>194</v>
       </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>23</v>
+      </c>
       <c r="D161" t="s">
         <v>190</v>
       </c>
@@ -3757,6 +3793,12 @@
       <c r="A162" t="s">
         <v>195</v>
       </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>31</v>
+      </c>
       <c r="D162" t="s">
         <v>190</v>
       </c>
@@ -3768,6 +3810,12 @@
       <c r="A163" t="s">
         <v>196</v>
       </c>
+      <c r="B163">
+        <v>4.5</v>
+      </c>
+      <c r="C163">
+        <v>63</v>
+      </c>
       <c r="D163" t="s">
         <v>190</v>
       </c>
@@ -3779,6 +3827,12 @@
       <c r="A164" t="s">
         <v>197</v>
       </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>23</v>
+      </c>
       <c r="D164" t="s">
         <v>190</v>
       </c>
@@ -3790,6 +3844,12 @@
       <c r="A165" t="s">
         <v>198</v>
       </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>8</v>
+      </c>
       <c r="D165" t="s">
         <v>190</v>
       </c>
@@ -3801,6 +3861,12 @@
       <c r="A166" t="s">
         <v>199</v>
       </c>
+      <c r="B166">
+        <v>4.5</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
       <c r="D166" t="s">
         <v>190</v>
       </c>
@@ -3812,6 +3878,12 @@
       <c r="A167" t="s">
         <v>200</v>
       </c>
+      <c r="B167">
+        <v>4.5</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
       <c r="D167" t="s">
         <v>190</v>
       </c>
@@ -3823,6 +3895,12 @@
       <c r="A168" t="s">
         <v>201</v>
       </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
       <c r="D168" t="s">
         <v>190</v>
       </c>
@@ -3831,8 +3909,11 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>202</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
       </c>
       <c r="D169" t="s">
         <v>190</v>
@@ -3845,6 +3926,12 @@
       <c r="A170" t="s">
         <v>203</v>
       </c>
+      <c r="B170">
+        <v>4.5</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
       <c r="D170" t="s">
         <v>190</v>
       </c>
@@ -3856,6 +3943,12 @@
       <c r="A171" t="s">
         <v>204</v>
       </c>
+      <c r="B171">
+        <v>4.5</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
       <c r="D171" t="s">
         <v>190</v>
       </c>
@@ -3867,6 +3960,12 @@
       <c r="A172" t="s">
         <v>205</v>
       </c>
+      <c r="B172">
+        <v>4.5</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
       <c r="D172" t="s">
         <v>190</v>
       </c>
@@ -3878,6 +3977,12 @@
       <c r="A173" t="s">
         <v>206</v>
       </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
       <c r="D173" t="s">
         <v>190</v>
       </c>
@@ -3889,6 +3994,12 @@
       <c r="A174" t="s">
         <v>207</v>
       </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
       <c r="D174" t="s">
         <v>208</v>
       </c>
@@ -3900,6 +4011,12 @@
       <c r="A175" t="s">
         <v>209</v>
       </c>
+      <c r="B175">
+        <v>4.5</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
       <c r="D175" t="s">
         <v>208</v>
       </c>
@@ -3911,6 +4028,12 @@
       <c r="A176" t="s">
         <v>210</v>
       </c>
+      <c r="B176">
+        <v>4.5</v>
+      </c>
+      <c r="C176">
+        <v>31</v>
+      </c>
       <c r="D176" t="s">
         <v>208</v>
       </c>
@@ -3922,6 +4045,12 @@
       <c r="A177" t="s">
         <v>211</v>
       </c>
+      <c r="B177">
+        <v>4.5</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
       <c r="D177" t="s">
         <v>208</v>
       </c>
@@ -3933,6 +4062,9 @@
       <c r="A178" t="s">
         <v>212</v>
       </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
       <c r="D178" t="s">
         <v>208</v>
       </c>
@@ -3944,6 +4076,12 @@
       <c r="A179" t="s">
         <v>213</v>
       </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
       <c r="D179" t="s">
         <v>208</v>
       </c>
@@ -3955,6 +4093,12 @@
       <c r="A180" t="s">
         <v>215</v>
       </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
       <c r="D180" t="s">
         <v>208</v>
       </c>
@@ -3966,6 +4110,12 @@
       <c r="A181" t="s">
         <v>216</v>
       </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
       <c r="D181" t="s">
         <v>208</v>
       </c>
@@ -3977,6 +4127,12 @@
       <c r="A182" t="s">
         <v>217</v>
       </c>
+      <c r="B182">
+        <v>4.5</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
       <c r="D182" t="s">
         <v>208</v>
       </c>
@@ -3988,6 +4144,9 @@
       <c r="A183" t="s">
         <v>218</v>
       </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
       <c r="D183" t="s">
         <v>208</v>
       </c>
@@ -3999,11 +4158,67 @@
       <c r="A184" t="s">
         <v>219</v>
       </c>
+      <c r="B184">
+        <v>4.5</v>
+      </c>
+      <c r="C184">
+        <v>33</v>
+      </c>
       <c r="D184" t="s">
         <v>208</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B189">
+        <f>COUNTIF(C2:C184,"&gt;0")</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190">
+        <f>COUNT(C2:C184)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191">
+        <f>COUNTIF(C2:C184,"&lt;1")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193">
+        <f>SUM(B2:B184)/B189</f>
+        <v>4.6042944785276072</v>
+      </c>
+      <c r="C193">
+        <f>SUM(C2:C184)/B189</f>
+        <v>11.92638036809816</v>
       </c>
     </row>
   </sheetData>

--- a/Korpus/korpusinfo.xlsx
+++ b/Korpus/korpusinfo.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florian/Documents/GitHub/beatlesAnalysis/Korpus/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2865" windowWidth="25335" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27980" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="263">
   <si>
     <t>Titel</t>
   </si>
@@ -700,12 +705,126 @@
   </si>
   <si>
     <t>Durchschnitt:</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>From Me to You</t>
+  </si>
+  <si>
+    <t>Thank You Girl</t>
+  </si>
+  <si>
+    <t>She Loves You</t>
+  </si>
+  <si>
+    <t>I'll Get You</t>
+  </si>
+  <si>
+    <t>04 62</t>
+  </si>
+  <si>
+    <t>08 63</t>
+  </si>
+  <si>
+    <t>I Want to Hold Your Hand</t>
+  </si>
+  <si>
+    <t>This Boy</t>
+  </si>
+  <si>
+    <t>11 63</t>
+  </si>
+  <si>
+    <t>Cry For A Shadow</t>
+  </si>
+  <si>
+    <t>Harrison, Lennon</t>
+  </si>
+  <si>
+    <t>03 64</t>
+  </si>
+  <si>
+    <t>I Feel Fine</t>
+  </si>
+  <si>
+    <t>She's a Woman</t>
+  </si>
+  <si>
+    <t>11 64</t>
+  </si>
+  <si>
+    <t>Yes It Is</t>
+  </si>
+  <si>
+    <t>04 65</t>
+  </si>
+  <si>
+    <t>I'm Down</t>
+  </si>
+  <si>
+    <t>07 65</t>
+  </si>
+  <si>
+    <t>We Can Work It Out</t>
+  </si>
+  <si>
+    <t>Day Tripper</t>
+  </si>
+  <si>
+    <t>12 65</t>
+  </si>
+  <si>
+    <t>Paperback Writer</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>06 66</t>
+  </si>
+  <si>
+    <t>Lady Madonna</t>
+  </si>
+  <si>
+    <t>The Inner Light</t>
+  </si>
+  <si>
+    <t>03 68</t>
+  </si>
+  <si>
+    <t>Hey Jude</t>
+  </si>
+  <si>
+    <t>08 68</t>
+  </si>
+  <si>
+    <t>Don't Let Me Down</t>
+  </si>
+  <si>
+    <t>04 69</t>
+  </si>
+  <si>
+    <t>The Ballad of John and Yoko</t>
+  </si>
+  <si>
+    <t>Old Brown Shoe</t>
+  </si>
+  <si>
+    <t>05 69</t>
+  </si>
+  <si>
+    <t>You Know My Name (Look Up the Number)</t>
+  </si>
+  <si>
+    <t>03 70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1087,22 +1206,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1340,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1439,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1456,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1473,7 +1592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1524,7 +1643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1555,7 +1674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1572,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1589,7 +1708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1606,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1623,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1640,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1657,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1674,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1708,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1759,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1773,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1790,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1807,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1821,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1838,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1855,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1872,7 +1991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1889,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -1906,7 +2025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1923,7 +2042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -1940,7 +2059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1957,7 +2076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -1974,7 +2093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1991,7 +2110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2008,7 +2127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2025,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -2042,7 +2161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -2059,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -2076,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2093,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2110,7 +2229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -2124,7 +2243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -2141,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -2158,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -2175,7 +2294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -2192,7 +2311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2206,7 +2325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -2240,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -2257,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2274,7 +2393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -2291,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -2308,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -2325,7 +2444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -2342,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -2359,7 +2478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -2376,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -2393,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -2407,7 +2526,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -2424,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -2441,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -2458,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -2475,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2492,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -2509,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2526,7 +2645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -2543,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -2560,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -2577,7 +2696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -2594,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -2611,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -2628,7 +2747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -2645,7 +2764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -2662,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -2679,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -2693,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -2707,7 +2826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -2724,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -2741,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -2758,7 +2877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -2775,7 +2894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -2792,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -2809,7 +2928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -2826,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -2843,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -2860,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -2877,7 +2996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -2894,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -2911,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -2925,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>139</v>
       </c>
@@ -2939,7 +3058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -2957,7 +3076,7 @@
       </c>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -2974,7 +3093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -2991,7 +3110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -3008,7 +3127,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -3025,7 +3144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -3042,7 +3161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -3059,7 +3178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>148</v>
       </c>
@@ -3076,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -3093,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -3110,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -3127,7 +3246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -3144,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>153</v>
       </c>
@@ -3161,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -3178,7 +3297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -3195,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>157</v>
       </c>
@@ -3212,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>158</v>
       </c>
@@ -3226,7 +3345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>159</v>
       </c>
@@ -3240,7 +3359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -3257,7 +3376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -3274,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -3291,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>163</v>
       </c>
@@ -3308,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -3325,7 +3444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -3342,7 +3461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>166</v>
       </c>
@@ -3359,7 +3478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -3373,7 +3492,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>169</v>
       </c>
@@ -3390,7 +3509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -3407,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -3424,7 +3543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -3441,7 +3560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -3458,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -3475,7 +3594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>175</v>
       </c>
@@ -3492,7 +3611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>176</v>
       </c>
@@ -3509,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -3526,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>178</v>
       </c>
@@ -3543,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -3560,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>180</v>
       </c>
@@ -3577,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -3594,7 +3713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -3611,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>183</v>
       </c>
@@ -3625,7 +3744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -3639,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>185</v>
       </c>
@@ -3653,7 +3772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>186</v>
       </c>
@@ -3670,7 +3789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -3687,7 +3806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>188</v>
       </c>
@@ -3704,7 +3823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -3721,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -3738,7 +3857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -3755,7 +3874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>193</v>
       </c>
@@ -3772,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -3789,7 +3908,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -3806,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>196</v>
       </c>
@@ -3823,7 +3942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -3840,7 +3959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -3857,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -3874,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -3891,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -3908,7 +4027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>202</v>
       </c>
@@ -3922,7 +4041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -3939,7 +4058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -3956,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -3973,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -3990,7 +4109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -4007,7 +4126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -4024,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -4041,7 +4160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>211</v>
       </c>
@@ -4058,7 +4177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>212</v>
       </c>
@@ -4072,7 +4191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -4089,7 +4208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>215</v>
       </c>
@@ -4106,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -4123,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>217</v>
       </c>
@@ -4140,7 +4259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -4154,7 +4273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -4171,54 +4290,491 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>226</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>225</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>227</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>225</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>228</v>
+      </c>
+      <c r="B187">
+        <v>4.5</v>
+      </c>
+      <c r="C187">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>225</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>229</v>
+      </c>
+      <c r="B188">
+        <v>4.5</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189">
+        <v>4.5</v>
+      </c>
+      <c r="C189">
+        <v>25</v>
+      </c>
+      <c r="D189" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190">
+        <v>4.5</v>
+      </c>
+      <c r="C190">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>225</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191">
+        <v>4.5</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>225</v>
+      </c>
+      <c r="E191" t="s">
+        <v>236</v>
+      </c>
+      <c r="F191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192">
+        <v>4.5</v>
+      </c>
+      <c r="C192">
+        <v>20</v>
+      </c>
+      <c r="D192" t="s">
+        <v>225</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193">
+        <v>4.5</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>225</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>225</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>243</v>
+      </c>
+      <c r="B195">
+        <v>4.5</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>245</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>225</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>246</v>
+      </c>
+      <c r="B197">
+        <v>4.5</v>
+      </c>
+      <c r="C197">
+        <v>30</v>
+      </c>
+      <c r="D197" t="s">
+        <v>225</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198">
+        <v>4.5</v>
+      </c>
+      <c r="C198">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>225</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>249</v>
+      </c>
+      <c r="B199">
+        <v>4.5</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>251</v>
+      </c>
+      <c r="B200">
+        <v>4.5</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>225</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>225</v>
+      </c>
+      <c r="E201" t="s">
+        <v>30</v>
+      </c>
+      <c r="F201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>254</v>
+      </c>
+      <c r="B202">
+        <v>4.5</v>
+      </c>
+      <c r="C202">
+        <v>45</v>
+      </c>
+      <c r="D202" t="s">
+        <v>225</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>256</v>
+      </c>
+      <c r="B203">
+        <v>4.5</v>
+      </c>
+      <c r="C203">
+        <v>22</v>
+      </c>
+      <c r="D203" t="s">
+        <v>225</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>225</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>225</v>
+      </c>
+      <c r="E205" t="s">
+        <v>30</v>
+      </c>
+      <c r="F205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>261</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="B211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B189">
-        <f>COUNTIF(C2:C184,"&gt;0")</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="B214">
+        <f>COUNTIF(C2:C206,"&gt;0")</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B190">
-        <f>COUNT(C2:C184)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B215">
+        <f>COUNT(C2:C206)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>223</v>
       </c>
-      <c r="B191">
-        <f>COUNTIF(C2:C184,"&lt;1")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B216">
+        <f>COUNTIF(C2:C206,"&lt;1")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>224</v>
       </c>
-      <c r="B193">
-        <f>SUM(B2:B184)/B189</f>
-        <v>4.6042944785276072</v>
-      </c>
-      <c r="C193">
-        <f>SUM(C2:C184)/B189</f>
-        <v>11.92638036809816</v>
+      <c r="B218">
+        <f>SUM(B2:B206)/B214</f>
+        <v>4.6071428571428568</v>
+      </c>
+      <c r="C218">
+        <f>SUM(C2:C206)/B214</f>
+        <v>12.032967032967033</v>
       </c>
     </row>
   </sheetData>
